--- a/app/src/test/resources/DatasetsforQTrip.xlsx
+++ b/app/src/test/resources/DatasetsforQTrip.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TestCase01" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TestCase02" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="TestCase03" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="TestCase04" sheetId="4" r:id="rId7"/>
+    <sheet name="TestCase01" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase02" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase03" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCase04" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,53 +205,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF3C3C3C"/>
       <name val="Lato"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -258,7 +268,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,7 +290,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -294,67 +310,64 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -544,91 +557,99 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="16" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>123456.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="C3" s="17">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="19.0"/>
-    <col customWidth="1" min="6" max="6" width="21.25"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -648,9 +669,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -668,9 +689,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -688,9 +709,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>21</v>
@@ -709,28 +730,29 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="3" width="27.63"/>
-    <col customWidth="1" min="4" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="14.13"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -756,9 +778,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>31</v>
@@ -782,9 +804,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -808,9 +830,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>41</v>
@@ -835,29 +857,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
-    <col customWidth="1" min="4" max="4" width="40.63"/>
-    <col customWidth="1" min="5" max="5" width="40.13"/>
-    <col customWidth="1" min="6" max="6" width="35.63"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -877,7 +900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -897,7 +920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -917,7 +940,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>58</v>
       </c>
@@ -938,6 +961,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>